--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il1b</t>
+  </si>
+  <si>
+    <t>Il1rap</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il1b</t>
-  </si>
-  <si>
-    <t>Il1rap</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1802.141101666666</v>
+        <v>0.1764863333333333</v>
       </c>
       <c r="H2">
-        <v>5406.423304999999</v>
+        <v>0.529459</v>
       </c>
       <c r="I2">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051493</v>
       </c>
       <c r="J2">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051496</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.89758066666666</v>
+        <v>2.717613666666667</v>
       </c>
       <c r="N2">
-        <v>125.692742</v>
+        <v>8.152841</v>
       </c>
       <c r="O2">
-        <v>0.7683440336868811</v>
+        <v>0.1923878616820162</v>
       </c>
       <c r="P2">
-        <v>0.768344033686881</v>
+        <v>0.1923878616820162</v>
       </c>
       <c r="Q2">
-        <v>75505.35217979469</v>
+        <v>0.4796216714465555</v>
       </c>
       <c r="R2">
-        <v>679548.1696181521</v>
+        <v>4.316595043019</v>
       </c>
       <c r="S2">
-        <v>0.6753598500329351</v>
+        <v>0.0001740138508535369</v>
       </c>
       <c r="T2">
-        <v>0.675359850032935</v>
+        <v>0.000174013850853537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1802.141101666666</v>
+        <v>0.1764863333333333</v>
       </c>
       <c r="H3">
-        <v>5406.423304999999</v>
+        <v>0.529459</v>
       </c>
       <c r="I3">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051493</v>
       </c>
       <c r="J3">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051496</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.091455</v>
       </c>
       <c r="O3">
-        <v>0.06780067916854361</v>
+        <v>0.2617322367003486</v>
       </c>
       <c r="P3">
-        <v>0.06780067916854361</v>
+        <v>0.2617322367003486</v>
       </c>
       <c r="Q3">
-        <v>6662.788977595418</v>
+        <v>0.6524967414272222</v>
       </c>
       <c r="R3">
-        <v>59965.10079835877</v>
+        <v>5.872470672845</v>
       </c>
       <c r="S3">
-        <v>0.05959551256704265</v>
+        <v>0.0002367354884167024</v>
       </c>
       <c r="T3">
-        <v>0.05959551256704265</v>
+        <v>0.0002367354884167025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1802.141101666666</v>
+        <v>0.1764863333333333</v>
       </c>
       <c r="H4">
-        <v>5406.423304999999</v>
+        <v>0.529459</v>
       </c>
       <c r="I4">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051493</v>
       </c>
       <c r="J4">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051496</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.077023</v>
+        <v>5.358543333333333</v>
       </c>
       <c r="N4">
-        <v>12.231069</v>
+        <v>16.07563</v>
       </c>
       <c r="O4">
-        <v>0.07476699722059184</v>
+        <v>0.3793470375408118</v>
       </c>
       <c r="P4">
-        <v>0.07476699722059184</v>
+        <v>0.3793470375408119</v>
       </c>
       <c r="Q4">
-        <v>7347.370720740337</v>
+        <v>0.9457096649077777</v>
       </c>
       <c r="R4">
-        <v>66126.33648666303</v>
+        <v>8.511386984170001</v>
       </c>
       <c r="S4">
-        <v>0.06571877416424315</v>
+        <v>0.0003431174827519197</v>
       </c>
       <c r="T4">
-        <v>0.06571877416424315</v>
+        <v>0.0003431174827519199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1802.141101666666</v>
+        <v>0.1764863333333333</v>
       </c>
       <c r="H5">
-        <v>5406.423304999999</v>
+        <v>0.529459</v>
       </c>
       <c r="I5">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051493</v>
       </c>
       <c r="J5">
-        <v>0.8789810559109003</v>
+        <v>0.0009044949579051496</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.857959</v>
+        <v>2.352393666666666</v>
       </c>
       <c r="N5">
-        <v>14.573877</v>
+        <v>7.057181</v>
       </c>
       <c r="O5">
-        <v>0.08908828992398354</v>
+        <v>0.1665328640768234</v>
       </c>
       <c r="P5">
-        <v>0.08908828992398353</v>
+        <v>0.1665328640768234</v>
       </c>
       <c r="Q5">
-        <v>8754.727584111497</v>
+        <v>0.4151653327865555</v>
       </c>
       <c r="R5">
-        <v>78792.54825700348</v>
+        <v>3.736487995079</v>
       </c>
       <c r="S5">
-        <v>0.07830691914667948</v>
+        <v>0.0001506281358829903</v>
       </c>
       <c r="T5">
-        <v>0.07830691914667946</v>
+        <v>0.0001506281358829904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01551766666666667</v>
+        <v>194.9449256666667</v>
       </c>
       <c r="H6">
-        <v>0.046553</v>
+        <v>584.834777</v>
       </c>
       <c r="I6">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420948</v>
       </c>
       <c r="J6">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420949</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.89758066666666</v>
+        <v>2.717613666666667</v>
       </c>
       <c r="N6">
-        <v>125.692742</v>
+        <v>8.152841</v>
       </c>
       <c r="O6">
-        <v>0.7683440336868811</v>
+        <v>0.1923878616820162</v>
       </c>
       <c r="P6">
-        <v>0.768344033686881</v>
+        <v>0.1923878616820162</v>
       </c>
       <c r="Q6">
-        <v>0.650152690925111</v>
+        <v>529.7849942390509</v>
       </c>
       <c r="R6">
-        <v>5.851374218325999</v>
+        <v>4768.064948151457</v>
       </c>
       <c r="S6">
-        <v>5.815309923939303E-06</v>
+        <v>0.1922138478311627</v>
       </c>
       <c r="T6">
-        <v>5.815309923939303E-06</v>
+        <v>0.1922138478311627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01551766666666667</v>
+        <v>194.9449256666667</v>
       </c>
       <c r="H7">
-        <v>0.046553</v>
+        <v>584.834777</v>
       </c>
       <c r="I7">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420948</v>
       </c>
       <c r="J7">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420949</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>11.091455</v>
       </c>
       <c r="O7">
-        <v>0.06780067916854361</v>
+        <v>0.2617322367003486</v>
       </c>
       <c r="P7">
-        <v>0.06780067916854361</v>
+        <v>0.2617322367003486</v>
       </c>
       <c r="Q7">
-        <v>0.05737116717944444</v>
+        <v>720.7409568367261</v>
       </c>
       <c r="R7">
-        <v>0.5163405046149999</v>
+        <v>6486.668611530536</v>
       </c>
       <c r="S7">
-        <v>5.131580973261464E-07</v>
+        <v>0.2614955012119319</v>
       </c>
       <c r="T7">
-        <v>5.131580973261464E-07</v>
+        <v>0.2614955012119319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01551766666666667</v>
+        <v>194.9449256666667</v>
       </c>
       <c r="H8">
-        <v>0.046553</v>
+        <v>584.834777</v>
       </c>
       <c r="I8">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420948</v>
       </c>
       <c r="J8">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420949</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.077023</v>
+        <v>5.358543333333333</v>
       </c>
       <c r="N8">
-        <v>12.231069</v>
+        <v>16.07563</v>
       </c>
       <c r="O8">
-        <v>0.07476699722059184</v>
+        <v>0.3793470375408118</v>
       </c>
       <c r="P8">
-        <v>0.07476699722059184</v>
+        <v>0.3793470375408119</v>
       </c>
       <c r="Q8">
-        <v>0.06326588390633332</v>
+        <v>1044.620831798279</v>
       </c>
       <c r="R8">
-        <v>0.5693929551569999</v>
+        <v>9401.587486184511</v>
       </c>
       <c r="S8">
-        <v>5.658835649880752E-07</v>
+        <v>0.3790039200580599</v>
       </c>
       <c r="T8">
-        <v>5.658835649880752E-07</v>
+        <v>0.37900392005806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01551766666666667</v>
+        <v>194.9449256666667</v>
       </c>
       <c r="H9">
-        <v>0.046553</v>
+        <v>584.834777</v>
       </c>
       <c r="I9">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420948</v>
       </c>
       <c r="J9">
-        <v>7.568627683662321E-06</v>
+        <v>0.9990955050420949</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.857959</v>
+        <v>2.352393666666666</v>
       </c>
       <c r="N9">
-        <v>14.573877</v>
+        <v>7.057181</v>
       </c>
       <c r="O9">
-        <v>0.08908828992398354</v>
+        <v>0.1665328640768234</v>
       </c>
       <c r="P9">
-        <v>0.08908828992398353</v>
+        <v>0.1665328640768234</v>
       </c>
       <c r="Q9">
-        <v>0.07538418844233333</v>
+        <v>458.5872084870708</v>
       </c>
       <c r="R9">
-        <v>0.6784576959809999</v>
+        <v>4127.284876383637</v>
       </c>
       <c r="S9">
-        <v>6.742760974087969E-07</v>
+        <v>0.1663822359409403</v>
       </c>
       <c r="T9">
-        <v>6.742760974087968E-07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>248.1049756666667</v>
-      </c>
-      <c r="H10">
-        <v>744.314927</v>
-      </c>
-      <c r="I10">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="J10">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>41.89758066666666</v>
-      </c>
-      <c r="N10">
-        <v>125.692742</v>
-      </c>
-      <c r="O10">
-        <v>0.7683440336868811</v>
-      </c>
-      <c r="P10">
-        <v>0.768344033686881</v>
-      </c>
-      <c r="Q10">
-        <v>10394.99823179554</v>
-      </c>
-      <c r="R10">
-        <v>93554.98408615982</v>
-      </c>
-      <c r="S10">
-        <v>0.09297836834402205</v>
-      </c>
-      <c r="T10">
-        <v>0.09297836834402204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>248.1049756666667</v>
-      </c>
-      <c r="H11">
-        <v>744.314927</v>
-      </c>
-      <c r="I11">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="J11">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.697151666666667</v>
-      </c>
-      <c r="N11">
-        <v>11.091455</v>
-      </c>
-      <c r="O11">
-        <v>0.06780067916854361</v>
-      </c>
-      <c r="P11">
-        <v>0.06780067916854361</v>
-      </c>
-      <c r="Q11">
-        <v>917.2817242943094</v>
-      </c>
-      <c r="R11">
-        <v>8255.535518648785</v>
-      </c>
-      <c r="S11">
-        <v>0.008204653443403639</v>
-      </c>
-      <c r="T11">
-        <v>0.008204653443403639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>248.1049756666667</v>
-      </c>
-      <c r="H12">
-        <v>744.314927</v>
-      </c>
-      <c r="I12">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="J12">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.077023</v>
-      </c>
-      <c r="N12">
-        <v>12.231069</v>
-      </c>
-      <c r="O12">
-        <v>0.07476699722059184</v>
-      </c>
-      <c r="P12">
-        <v>0.07476699722059184</v>
-      </c>
-      <c r="Q12">
-        <v>1011.52969220744</v>
-      </c>
-      <c r="R12">
-        <v>9103.767229866962</v>
-      </c>
-      <c r="S12">
-        <v>0.009047657172783687</v>
-      </c>
-      <c r="T12">
-        <v>0.009047657172783687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>248.1049756666667</v>
-      </c>
-      <c r="H13">
-        <v>744.314927</v>
-      </c>
-      <c r="I13">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="J13">
-        <v>0.121011375461416</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.857959</v>
-      </c>
-      <c r="N13">
-        <v>14.573877</v>
-      </c>
-      <c r="O13">
-        <v>0.08908828992398354</v>
-      </c>
-      <c r="P13">
-        <v>0.08908828992398353</v>
-      </c>
-      <c r="Q13">
-        <v>1205.283799484664</v>
-      </c>
-      <c r="R13">
-        <v>10847.55419536198</v>
-      </c>
-      <c r="S13">
-        <v>0.01078069650120666</v>
-      </c>
-      <c r="T13">
-        <v>0.01078069650120666</v>
+        <v>0.1663822359409404</v>
       </c>
     </row>
   </sheetData>
